--- a/assets/ShortcutDirFileConfig.xlsx
+++ b/assets/ShortcutDirFileConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12275" windowHeight="6515"/>
+    <workbookView windowWidth="16835" windowHeight="6515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,8 +1001,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/assets/ShortcutDirFileConfig.xlsx
+++ b/assets/ShortcutDirFileConfig.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16835" windowHeight="6515"/>
+    <workbookView windowWidth="18975" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>按钮文本</t>
   </si>
@@ -22,22 +35,64 @@
     <t>文件或者文件夹路径</t>
   </si>
   <si>
-    <t>打开消费表</t>
-  </si>
-  <si>
-    <t>E:\DesktopSpace\Development\Python\pitcher_tool\assets\ShortcutDirFileConfig.xlsx</t>
-  </si>
-  <si>
-    <t>营业执照文件夹</t>
-  </si>
-  <si>
-    <t>E:\DesktopSpace\Development\Python\pitcher_tool\assets</t>
+    <t>消费表</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\消费表\11月消费表.xlsx</t>
+  </si>
+  <si>
+    <t>视频成品</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\男生\视频</t>
+  </si>
+  <si>
+    <t>文案</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\男生\文案.txt</t>
+  </si>
+  <si>
+    <t>视频素材</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\男生\视频素材</t>
+  </si>
+  <si>
+    <t>视频封面</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\男生\封面</t>
+  </si>
+  <si>
+    <t>音乐素材</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\男生\音乐</t>
+  </si>
+  <si>
+    <t>图片成品</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\男生\成品图片</t>
+  </si>
+  <si>
+    <t>图片素材</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\男生\图片素材</t>
+  </si>
+  <si>
+    <t>营业执照</t>
+  </si>
+  <si>
+    <t>E:\莫利欢\营业执照</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -53,34 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -94,14 +121,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,6 +165,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,7 +225,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,49 +261,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,121 +399,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,21 +452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,6 +484,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,148 +557,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -654,52 +709,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -999,16 +1054,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="111.555555555556" customWidth="1"/>
+    <col min="1" max="1" width="40.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="111.558333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1033,6 +1088,62 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/ShortcutDirFileConfig.xlsx
+++ b/assets/ShortcutDirFileConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18975" windowHeight="9075"/>
+    <workbookView windowWidth="19020" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <t>消费表</t>
   </si>
   <si>
-    <t>E:\莫利欢\消费表\11月消费表.xlsx</t>
+    <t>E:\莫利欢\消费表\12月消费表.xlsx</t>
   </si>
   <si>
     <t>视频成品</t>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/assets/ShortcutDirFileConfig.xlsx
+++ b/assets/ShortcutDirFileConfig.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19020" windowHeight="10815"/>
+    <workbookView windowWidth="21671" windowHeight="8207"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -92,14 +79,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +95,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -121,6 +152,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,14 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +212,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +220,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,21 +235,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -225,28 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +264,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,24 +330,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,18 +378,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,36 +390,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,24 +414,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,12 +433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +455,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,21 +502,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,204 +560,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1057,20 +1066,22 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="111.558333333333" customWidth="1"/>
+    <col min="1" max="1" width="40.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="111.555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="34" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/assets/ShortcutDirFileConfig.xlsx
+++ b/assets/ShortcutDirFileConfig.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21671" windowHeight="8207"/>
+    <workbookView windowWidth="18630" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>按钮文本</t>
   </si>
@@ -74,12 +87,18 @@
   </si>
   <si>
     <t>E:\莫利欢\营业执照</t>
+  </si>
+  <si>
+    <t>接码软件</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\zc.exe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -111,34 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -152,14 +143,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +187,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,7 +247,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,49 +283,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,121 +421,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,21 +474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,6 +506,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,148 +579,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -718,52 +737,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1063,18 +1082,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="111.555555555556" customWidth="1"/>
+    <col min="1" max="1" width="40.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="111.558333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:2">
@@ -1155,6 +1174,14 @@
       </c>
       <c r="B10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/assets/ShortcutDirFileConfig.xlsx
+++ b/assets/ShortcutDirFileConfig.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18630" windowHeight="8535"/>
+    <workbookView windowWidth="21671" windowHeight="8207"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -98,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -130,6 +117,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -143,6 +158,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,14 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +226,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -218,21 +241,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -247,28 +255,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,13 +270,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,24 +336,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,18 +384,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,36 +396,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,24 +420,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,12 +439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +461,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,21 +508,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,148 +566,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,52 +724,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1084,16 +1071,16 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="111.558333333333" customWidth="1"/>
+    <col min="1" max="1" width="40.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="111.555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:2">
